--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H2">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N2">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q2">
-        <v>3.217428408967777</v>
+        <v>3.30902608242</v>
       </c>
       <c r="R2">
-        <v>28.95685568071</v>
+        <v>29.78123474178</v>
       </c>
       <c r="S2">
-        <v>0.121952110143234</v>
+        <v>0.1525213845523333</v>
       </c>
       <c r="T2">
-        <v>0.121952110143234</v>
+        <v>0.1525213845523333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H3">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I3">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J3">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.466686</v>
       </c>
       <c r="O3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q3">
-        <v>0.685487167948</v>
+        <v>1.07608613442</v>
       </c>
       <c r="R3">
-        <v>6.169384511532</v>
+        <v>9.68477520978</v>
       </c>
       <c r="S3">
-        <v>0.02598242943785893</v>
+        <v>0.04959953262117409</v>
       </c>
       <c r="T3">
-        <v>0.02598242943785893</v>
+        <v>0.04959953262117408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H4">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I4">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J4">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N4">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q4">
-        <v>0.4267788707677778</v>
+        <v>0.6795594409900001</v>
       </c>
       <c r="R4">
-        <v>3.84100983691</v>
+        <v>6.11603496891</v>
       </c>
       <c r="S4">
-        <v>0.01617645437256978</v>
+        <v>0.03132261403923529</v>
       </c>
       <c r="T4">
-        <v>0.01617645437256978</v>
+        <v>0.03132261403923529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>23.411895</v>
       </c>
       <c r="I5">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J5">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N5">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q5">
-        <v>5.698078051358332</v>
+        <v>3.733120305329999</v>
       </c>
       <c r="R5">
-        <v>51.282702462225</v>
+        <v>33.59808274797</v>
       </c>
       <c r="S5">
-        <v>0.2159776547590478</v>
+        <v>0.1720689603186669</v>
       </c>
       <c r="T5">
-        <v>0.2159776547590478</v>
+        <v>0.1720689603186669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>23.411895</v>
       </c>
       <c r="I6">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J6">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.466686</v>
       </c>
       <c r="O6">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P6">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q6">
         <v>1.21400040333</v>
@@ -824,10 +824,10 @@
         <v>10.92600362997</v>
       </c>
       <c r="S6">
-        <v>0.04601498217899067</v>
+        <v>0.05595635022240995</v>
       </c>
       <c r="T6">
-        <v>0.04601498217899067</v>
+        <v>0.05595635022240993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.411895</v>
       </c>
       <c r="I7">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J7">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N7">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O7">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P7">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q7">
-        <v>0.7558270168583332</v>
+        <v>0.7666537176349999</v>
       </c>
       <c r="R7">
-        <v>6.802443151725</v>
+        <v>6.899883458714999</v>
       </c>
       <c r="S7">
-        <v>0.02864856273172248</v>
+        <v>0.035337009613526</v>
       </c>
       <c r="T7">
-        <v>0.02864856273172247</v>
+        <v>0.03533700961352598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H8">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I8">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J8">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N8">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O8">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P8">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q8">
-        <v>3.873105092402222</v>
+        <v>3.07619135162</v>
       </c>
       <c r="R8">
-        <v>34.85794583162</v>
+        <v>27.68572216458</v>
       </c>
       <c r="S8">
-        <v>0.1468046149864423</v>
+        <v>0.1417894426972499</v>
       </c>
       <c r="T8">
-        <v>0.1468046149864423</v>
+        <v>0.1417894426972499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H9">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I9">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J9">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.466686</v>
       </c>
       <c r="O9">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P9">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q9">
-        <v>0.8251819476559999</v>
+        <v>1.00036892362</v>
       </c>
       <c r="R9">
-        <v>7.426637528903999</v>
+        <v>9.00332031258</v>
       </c>
       <c r="S9">
-        <v>0.03127736408625733</v>
+        <v>0.04610953479764194</v>
       </c>
       <c r="T9">
-        <v>0.03127736408625733</v>
+        <v>0.04610953479764193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H10">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I10">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J10">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N10">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O10">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P10">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q10">
-        <v>0.5137517320022221</v>
+        <v>0.6317432450566667</v>
       </c>
       <c r="R10">
-        <v>4.623765588019999</v>
+        <v>5.68568920551</v>
       </c>
       <c r="S10">
-        <v>0.01947303866428926</v>
+        <v>0.02911864458534569</v>
       </c>
       <c r="T10">
-        <v>0.01947303866428926</v>
+        <v>0.02911864458534569</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H11">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I11">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J11">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N11">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O11">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P11">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q11">
-        <v>2.796912889736111</v>
+        <v>1.982447572696</v>
       </c>
       <c r="R11">
-        <v>25.172216007625</v>
+        <v>17.842028154264</v>
       </c>
       <c r="S11">
-        <v>0.1060130593238462</v>
+        <v>0.09137602456396367</v>
       </c>
       <c r="T11">
-        <v>0.1060130593238462</v>
+        <v>0.09137602456396367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H12">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I12">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J12">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.466686</v>
       </c>
       <c r="O12">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P12">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q12">
-        <v>0.5958945008500001</v>
+        <v>0.644686470296</v>
       </c>
       <c r="R12">
-        <v>5.36305050765</v>
+        <v>5.802178232664</v>
       </c>
       <c r="S12">
-        <v>0.02258654508018128</v>
+        <v>0.02971523058524573</v>
       </c>
       <c r="T12">
-        <v>0.02258654508018127</v>
+        <v>0.02971523058524572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H13">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I13">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J13">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N13">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O13">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P13">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q13">
-        <v>0.3709991872361111</v>
+        <v>0.4071261243453334</v>
       </c>
       <c r="R13">
-        <v>3.338992685125</v>
+        <v>3.664135119108</v>
       </c>
       <c r="S13">
-        <v>0.01406220372107171</v>
+        <v>0.0187654731712369</v>
       </c>
       <c r="T13">
-        <v>0.01406220372107171</v>
+        <v>0.0187654731712369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H14">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I14">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J14">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N14">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O14">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P14">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q14">
-        <v>4.019672817362221</v>
+        <v>2.074060592764</v>
       </c>
       <c r="R14">
-        <v>36.17705535626</v>
+        <v>18.666545334876</v>
       </c>
       <c r="S14">
-        <v>0.1523600589826304</v>
+        <v>0.09559870045583009</v>
       </c>
       <c r="T14">
-        <v>0.1523600589826304</v>
+        <v>0.09559870045583006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H15">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I15">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J15">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.466686</v>
       </c>
       <c r="O15">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P15">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q15">
-        <v>0.856408841288</v>
+        <v>0.6744787711640001</v>
       </c>
       <c r="R15">
-        <v>7.707679571591999</v>
+        <v>6.070308940476001</v>
       </c>
       <c r="S15">
-        <v>0.03246097568147616</v>
+        <v>0.03108843311197344</v>
       </c>
       <c r="T15">
-        <v>0.03246097568147615</v>
+        <v>0.03108843311197344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H16">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I16">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J16">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N16">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O16">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P16">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q16">
-        <v>0.5331933481622222</v>
+        <v>0.4259402681913335</v>
       </c>
       <c r="R16">
-        <v>4.79874013346</v>
+        <v>3.833462413722001</v>
       </c>
       <c r="S16">
-        <v>0.02020994585038185</v>
+        <v>0.01963266466416708</v>
       </c>
       <c r="T16">
-        <v>0.02020994585038185</v>
+        <v>0.01963266466416707</v>
       </c>
     </row>
   </sheetData>
